--- a/data/pca/factorExposure/factorExposure_2011-06-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02147130262965073</v>
+        <v>-0.01753940270906356</v>
       </c>
       <c r="C2">
-        <v>-0.01130032348251218</v>
+        <v>-0.0003715049814037836</v>
       </c>
       <c r="D2">
-        <v>0.05959985635055787</v>
+        <v>0.007958484168704563</v>
       </c>
       <c r="E2">
-        <v>0.03935550722835729</v>
+        <v>0.0441233188590012</v>
       </c>
       <c r="F2">
-        <v>-0.0308973545943216</v>
+        <v>-0.001931492080794581</v>
       </c>
       <c r="G2">
-        <v>0.02779123142805729</v>
+        <v>-0.02982060538774025</v>
       </c>
       <c r="H2">
-        <v>-0.01676096672435487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01064825081741124</v>
+      </c>
+      <c r="I2">
+        <v>-0.0253756856742954</v>
+      </c>
+      <c r="J2">
+        <v>-0.02454402953294841</v>
+      </c>
+      <c r="K2">
+        <v>-0.04262697098717319</v>
+      </c>
+      <c r="L2">
+        <v>0.0449213494244443</v>
+      </c>
+      <c r="M2">
+        <v>-0.0008579206996553557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07682134549187747</v>
+        <v>-0.1073024248403357</v>
       </c>
       <c r="C4">
-        <v>0.05164512348108583</v>
+        <v>0.0804100015659571</v>
       </c>
       <c r="D4">
-        <v>0.03014948374871342</v>
+        <v>0.01834345337597182</v>
       </c>
       <c r="E4">
-        <v>0.04866124504527711</v>
+        <v>0.05047008810522613</v>
       </c>
       <c r="F4">
-        <v>0.00140732884716852</v>
+        <v>0.1230148539076022</v>
       </c>
       <c r="G4">
-        <v>0.01401660408089155</v>
+        <v>0.01854238021526537</v>
       </c>
       <c r="H4">
-        <v>0.002310812355182247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.04008440743567034</v>
+      </c>
+      <c r="I4">
+        <v>-0.01142774616060524</v>
+      </c>
+      <c r="J4">
+        <v>0.08524337046222769</v>
+      </c>
+      <c r="K4">
+        <v>-0.008533624472852719</v>
+      </c>
+      <c r="L4">
+        <v>-0.0769929270436535</v>
+      </c>
+      <c r="M4">
+        <v>0.03826873183151304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1268990758239366</v>
+        <v>-0.1317344580611551</v>
       </c>
       <c r="C6">
-        <v>0.02928975541831638</v>
+        <v>0.05409155785854968</v>
       </c>
       <c r="D6">
-        <v>0.04860187452805173</v>
+        <v>0.00668837788044332</v>
       </c>
       <c r="E6">
-        <v>0.07149582069571124</v>
+        <v>0.01242742389940166</v>
       </c>
       <c r="F6">
-        <v>0.07055626994782573</v>
+        <v>0.0306292306637406</v>
       </c>
       <c r="G6">
-        <v>-0.1006768487556345</v>
+        <v>0.1874435902515622</v>
       </c>
       <c r="H6">
-        <v>0.299118714390279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1343968389959499</v>
+      </c>
+      <c r="I6">
+        <v>-0.177699349457255</v>
+      </c>
+      <c r="J6">
+        <v>0.3331878473007844</v>
+      </c>
+      <c r="K6">
+        <v>0.149451581707996</v>
+      </c>
+      <c r="L6">
+        <v>0.122638496133462</v>
+      </c>
+      <c r="M6">
+        <v>0.03554650706303118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07422428629788104</v>
+        <v>-0.07577322757591749</v>
       </c>
       <c r="C7">
-        <v>0.05797797567637377</v>
+        <v>0.07246901497327334</v>
       </c>
       <c r="D7">
-        <v>0.05344871269475993</v>
+        <v>0.009579201244066205</v>
       </c>
       <c r="E7">
-        <v>0.04123799647042756</v>
+        <v>0.04885898909030396</v>
       </c>
       <c r="F7">
-        <v>0.03225763167914875</v>
+        <v>0.01776750125396656</v>
       </c>
       <c r="G7">
-        <v>0.002298495664846387</v>
+        <v>-0.004072651346920366</v>
       </c>
       <c r="H7">
-        <v>-0.01784806406608365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.03558596089354094</v>
+      </c>
+      <c r="I7">
+        <v>0.05434118516284158</v>
+      </c>
+      <c r="J7">
+        <v>0.01204742380562863</v>
+      </c>
+      <c r="K7">
+        <v>-0.01420075250792022</v>
+      </c>
+      <c r="L7">
+        <v>-0.08804382327143161</v>
+      </c>
+      <c r="M7">
+        <v>-0.02869875354934435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03051073903966591</v>
+        <v>-0.03778412493886749</v>
       </c>
       <c r="C8">
-        <v>0.0105354357726488</v>
+        <v>0.01240034472440411</v>
       </c>
       <c r="D8">
-        <v>0.04655963445838764</v>
+        <v>0.01490468338973588</v>
       </c>
       <c r="E8">
-        <v>0.06120049723649026</v>
+        <v>0.0504306057753464</v>
       </c>
       <c r="F8">
-        <v>-0.04149696043254388</v>
+        <v>0.09790286125680457</v>
       </c>
       <c r="G8">
-        <v>-0.04802668456734037</v>
+        <v>0.01661828698343955</v>
       </c>
       <c r="H8">
-        <v>-0.0321141874681001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.01885370158389113</v>
+      </c>
+      <c r="I8">
+        <v>-0.02473121246472078</v>
+      </c>
+      <c r="J8">
+        <v>0.06544675345274574</v>
+      </c>
+      <c r="K8">
+        <v>-0.03187755961917901</v>
+      </c>
+      <c r="L8">
+        <v>-0.05498256801339736</v>
+      </c>
+      <c r="M8">
+        <v>0.04067182303527511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07442083596944617</v>
+        <v>-0.08332842281893289</v>
       </c>
       <c r="C9">
-        <v>0.06590627116930929</v>
+        <v>0.07354496188082729</v>
       </c>
       <c r="D9">
-        <v>0.03503386138747371</v>
+        <v>-0.003547947072575057</v>
       </c>
       <c r="E9">
-        <v>0.04007956810215929</v>
+        <v>0.03404549978411218</v>
       </c>
       <c r="F9">
-        <v>-0.0173761901610459</v>
+        <v>0.1173850251545877</v>
       </c>
       <c r="G9">
-        <v>0.01076910193141956</v>
+        <v>0.01393332599415257</v>
       </c>
       <c r="H9">
-        <v>-0.002696625853523873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.03492978803016971</v>
+      </c>
+      <c r="I9">
+        <v>0.01180336077169133</v>
+      </c>
+      <c r="J9">
+        <v>0.0601677351193976</v>
+      </c>
+      <c r="K9">
+        <v>-0.01613728375254567</v>
+      </c>
+      <c r="L9">
+        <v>-0.03790345220119432</v>
+      </c>
+      <c r="M9">
+        <v>-0.01093888255555811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06275816012205658</v>
+        <v>-0.1126743153047536</v>
       </c>
       <c r="C10">
-        <v>-0.1358994039647533</v>
+        <v>-0.1671337838780096</v>
       </c>
       <c r="D10">
-        <v>0.05653620086656891</v>
+        <v>0.003111615882362946</v>
       </c>
       <c r="E10">
-        <v>0.03354324791026547</v>
+        <v>0.05193838593642667</v>
       </c>
       <c r="F10">
-        <v>0.03842308944526475</v>
+        <v>-0.008681283521589298</v>
       </c>
       <c r="G10">
-        <v>-0.02403085223499835</v>
+        <v>0.007863650866971736</v>
       </c>
       <c r="H10">
-        <v>0.03319287252696836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.006868608559474884</v>
+      </c>
+      <c r="I10">
+        <v>0.04992748854668418</v>
+      </c>
+      <c r="J10">
+        <v>-0.03548056953138078</v>
+      </c>
+      <c r="K10">
+        <v>0.01479936659138736</v>
+      </c>
+      <c r="L10">
+        <v>0.0003054427213937698</v>
+      </c>
+      <c r="M10">
+        <v>-0.1104335302411265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07022594703781418</v>
+        <v>-0.06799098647426824</v>
       </c>
       <c r="C11">
-        <v>0.08677292208349392</v>
+        <v>0.07232481235418176</v>
       </c>
       <c r="D11">
-        <v>0.03615969202360914</v>
+        <v>-0.03275463391233954</v>
       </c>
       <c r="E11">
-        <v>0.01305354058025591</v>
+        <v>0.018499404369709</v>
       </c>
       <c r="F11">
-        <v>-0.06215843587872617</v>
+        <v>0.1055727039747263</v>
       </c>
       <c r="G11">
-        <v>-0.009847953371006669</v>
+        <v>-0.002590851612652191</v>
       </c>
       <c r="H11">
-        <v>-0.06305447255302987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.01185154768479173</v>
+      </c>
+      <c r="I11">
+        <v>0.07460077073923285</v>
+      </c>
+      <c r="J11">
+        <v>-0.03046781917881499</v>
+      </c>
+      <c r="K11">
+        <v>-0.073108278001834</v>
+      </c>
+      <c r="L11">
+        <v>0.01078790112787022</v>
+      </c>
+      <c r="M11">
+        <v>-0.09136135818154183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06755627254207475</v>
+        <v>-0.07143324678354604</v>
       </c>
       <c r="C12">
-        <v>0.05549508520789273</v>
+        <v>0.0641734314599773</v>
       </c>
       <c r="D12">
-        <v>0.02177918127449205</v>
+        <v>-0.03067085374357652</v>
       </c>
       <c r="E12">
-        <v>0.02805443598881928</v>
+        <v>0.008357657452884526</v>
       </c>
       <c r="F12">
-        <v>-0.006302884295942212</v>
+        <v>0.1146965505386608</v>
       </c>
       <c r="G12">
-        <v>-0.007167504178458263</v>
+        <v>-0.006002750780613932</v>
       </c>
       <c r="H12">
-        <v>-0.05674543579261893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.002106702127065708</v>
+      </c>
+      <c r="I12">
+        <v>0.06202348074178178</v>
+      </c>
+      <c r="J12">
+        <v>-0.005881158293632004</v>
+      </c>
+      <c r="K12">
+        <v>-0.09455584055971664</v>
+      </c>
+      <c r="L12">
+        <v>-0.01465634665287858</v>
+      </c>
+      <c r="M12">
+        <v>-0.1198601833062229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05252527734460367</v>
+        <v>-0.04643941656302275</v>
       </c>
       <c r="C13">
-        <v>0.0120645131826573</v>
+        <v>0.02973212145343454</v>
       </c>
       <c r="D13">
-        <v>-0.003721693643051358</v>
+        <v>0.02298834560365844</v>
       </c>
       <c r="E13">
-        <v>0.01930213709898799</v>
+        <v>0.01136403890442624</v>
       </c>
       <c r="F13">
-        <v>-0.04126228279358173</v>
+        <v>0.04127246216551667</v>
       </c>
       <c r="G13">
-        <v>0.02785585765444112</v>
+        <v>-0.01494615770534064</v>
       </c>
       <c r="H13">
-        <v>-0.01401511741516715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.02426808777586966</v>
+      </c>
+      <c r="I13">
+        <v>-0.001293906683772835</v>
+      </c>
+      <c r="J13">
+        <v>0.02268202882927668</v>
+      </c>
+      <c r="K13">
+        <v>-0.001627148262367893</v>
+      </c>
+      <c r="L13">
+        <v>-0.06595616925023622</v>
+      </c>
+      <c r="M13">
+        <v>0.02421974270347547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04873437350501177</v>
+        <v>-0.04304677427151984</v>
       </c>
       <c r="C14">
-        <v>0.02250199529107318</v>
+        <v>0.03114624375445785</v>
       </c>
       <c r="D14">
-        <v>0.02052310809723429</v>
+        <v>-0.01151907126092724</v>
       </c>
       <c r="E14">
-        <v>0.002584174822602416</v>
+        <v>0.01677939825824046</v>
       </c>
       <c r="F14">
-        <v>0.008656001688271187</v>
+        <v>0.06243889313428269</v>
       </c>
       <c r="G14">
-        <v>-0.007551282507163579</v>
+        <v>-0.01938288218124149</v>
       </c>
       <c r="H14">
-        <v>0.06826044596448763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.05612324961223578</v>
+      </c>
+      <c r="I14">
+        <v>0.0008965387614795619</v>
+      </c>
+      <c r="J14">
+        <v>0.0598895455118965</v>
+      </c>
+      <c r="K14">
+        <v>0.03885724655889761</v>
+      </c>
+      <c r="L14">
+        <v>-0.0458886315464104</v>
+      </c>
+      <c r="M14">
+        <v>0.02318893674269765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03993969477126439</v>
+        <v>-0.02956723128625448</v>
       </c>
       <c r="C15">
-        <v>-0.008050507686218754</v>
+        <v>0.008199613340482656</v>
       </c>
       <c r="D15">
-        <v>-0.007030931623321323</v>
+        <v>0.05783213379519547</v>
       </c>
       <c r="E15">
-        <v>0.02022778072166367</v>
+        <v>0.003100173100129011</v>
       </c>
       <c r="F15">
-        <v>0.004484358749145731</v>
+        <v>0.00823772315058602</v>
       </c>
       <c r="G15">
-        <v>0.0117485498412239</v>
+        <v>0.03530031499962204</v>
       </c>
       <c r="H15">
-        <v>0.007513422221691727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04105062272627836</v>
+      </c>
+      <c r="I15">
+        <v>-0.02737191216971104</v>
+      </c>
+      <c r="J15">
+        <v>0.02635057566203662</v>
+      </c>
+      <c r="K15">
+        <v>0.04307464882763894</v>
+      </c>
+      <c r="L15">
+        <v>-0.04653989894077754</v>
+      </c>
+      <c r="M15">
+        <v>-0.01584185405368468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.05842074264784895</v>
+        <v>-0.07245909880909583</v>
       </c>
       <c r="C16">
-        <v>0.08296787686507229</v>
+        <v>0.07930290797415813</v>
       </c>
       <c r="D16">
-        <v>0.02955669602006745</v>
+        <v>-0.02185359781425067</v>
       </c>
       <c r="E16">
-        <v>0.03472027467716723</v>
+        <v>0.01763430425597026</v>
       </c>
       <c r="F16">
-        <v>-0.04200291622905129</v>
+        <v>0.105310704353932</v>
       </c>
       <c r="G16">
-        <v>0.01084110639106125</v>
+        <v>-0.01608508164870517</v>
       </c>
       <c r="H16">
-        <v>-0.06249862728904296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.007769474969032281</v>
+      </c>
+      <c r="I16">
+        <v>0.06931790759138438</v>
+      </c>
+      <c r="J16">
+        <v>-0.01101176090129423</v>
+      </c>
+      <c r="K16">
+        <v>-0.08452438319976731</v>
+      </c>
+      <c r="L16">
+        <v>-0.01398015043720271</v>
+      </c>
+      <c r="M16">
+        <v>-0.08238793199584404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04336225399818869</v>
+        <v>-0.04552638736790289</v>
       </c>
       <c r="C20">
-        <v>0.04300340006526145</v>
+        <v>0.03214482465898561</v>
       </c>
       <c r="D20">
-        <v>0.005920105909308069</v>
+        <v>0.02436699614390793</v>
       </c>
       <c r="E20">
-        <v>0.0160237049078487</v>
+        <v>0.01845108501928012</v>
       </c>
       <c r="F20">
-        <v>-0.02009336841450096</v>
+        <v>0.05959483006461574</v>
       </c>
       <c r="G20">
-        <v>0.02213949561424075</v>
+        <v>-0.01492334883714309</v>
       </c>
       <c r="H20">
-        <v>-0.01613032545579575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.012349651573523</v>
+      </c>
+      <c r="I20">
+        <v>0.02943750639416562</v>
+      </c>
+      <c r="J20">
+        <v>0.0626117475223532</v>
+      </c>
+      <c r="K20">
+        <v>-0.01369878070429464</v>
+      </c>
+      <c r="L20">
+        <v>-0.05961124408889097</v>
+      </c>
+      <c r="M20">
+        <v>-0.03283795287647987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.0183538028887086</v>
+        <v>-0.03027660491494872</v>
       </c>
       <c r="C21">
-        <v>0.02599569098730456</v>
+        <v>0.02357569473126828</v>
       </c>
       <c r="D21">
-        <v>0.002789458725529953</v>
+        <v>0.00331028274952811</v>
       </c>
       <c r="E21">
-        <v>0.06341834509625696</v>
+        <v>0.02259728394754457</v>
       </c>
       <c r="F21">
-        <v>0.05830133923222814</v>
+        <v>0.06492319633382825</v>
       </c>
       <c r="G21">
-        <v>-0.07520650151073253</v>
+        <v>0.09088978426569255</v>
       </c>
       <c r="H21">
-        <v>0.02356985300187189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.009732283259331389</v>
+      </c>
+      <c r="I21">
+        <v>0.06214490955802231</v>
+      </c>
+      <c r="J21">
+        <v>0.02004287191047453</v>
+      </c>
+      <c r="K21">
+        <v>0.04342077959832041</v>
+      </c>
+      <c r="L21">
+        <v>-0.09611001264706341</v>
+      </c>
+      <c r="M21">
+        <v>0.001999024933208466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01920409249638126</v>
+        <v>-0.04325668715152159</v>
       </c>
       <c r="C22">
-        <v>0.0506647270513939</v>
+        <v>0.01469356590081972</v>
       </c>
       <c r="D22">
-        <v>-0.1317415777129943</v>
+        <v>0.6575917326205802</v>
       </c>
       <c r="E22">
-        <v>0.4747499912035993</v>
+        <v>0.05189823747820218</v>
       </c>
       <c r="F22">
-        <v>0.16688725699579</v>
+        <v>-0.06806009644363289</v>
       </c>
       <c r="G22">
-        <v>0.2917354489970864</v>
+        <v>-0.0653887176895632</v>
       </c>
       <c r="H22">
-        <v>-0.1200829907804787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.09195577137676691</v>
+      </c>
+      <c r="I22">
+        <v>0.1098892462697536</v>
+      </c>
+      <c r="J22">
+        <v>-0.01540364653474308</v>
+      </c>
+      <c r="K22">
+        <v>0.01569810402448231</v>
+      </c>
+      <c r="L22">
+        <v>0.02495373215325243</v>
+      </c>
+      <c r="M22">
+        <v>0.02755007191129857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01823366623568381</v>
+        <v>-0.0434767880885092</v>
       </c>
       <c r="C23">
-        <v>0.04916129641002226</v>
+        <v>0.01494195962771736</v>
       </c>
       <c r="D23">
-        <v>-0.1321432939240033</v>
+        <v>0.6591370772015228</v>
       </c>
       <c r="E23">
-        <v>0.4736054479974193</v>
+        <v>0.05249897998806297</v>
       </c>
       <c r="F23">
-        <v>0.1665663441356091</v>
+        <v>-0.06468358041011245</v>
       </c>
       <c r="G23">
-        <v>0.2904150575816594</v>
+        <v>-0.06612075552112094</v>
       </c>
       <c r="H23">
-        <v>-0.1174325740878785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.09301992405789769</v>
+      </c>
+      <c r="I23">
+        <v>0.1071799964661851</v>
+      </c>
+      <c r="J23">
+        <v>-0.01370701742793528</v>
+      </c>
+      <c r="K23">
+        <v>0.01564596933480877</v>
+      </c>
+      <c r="L23">
+        <v>0.0280893981434532</v>
+      </c>
+      <c r="M23">
+        <v>0.02905356795140683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07466462256950115</v>
+        <v>-0.07692170464703409</v>
       </c>
       <c r="C24">
-        <v>0.07702090013180159</v>
+        <v>0.07696891417572742</v>
       </c>
       <c r="D24">
-        <v>0.03699241777226554</v>
+        <v>-0.01768588408759627</v>
       </c>
       <c r="E24">
-        <v>0.04341958983689204</v>
+        <v>0.02057159572093605</v>
       </c>
       <c r="F24">
-        <v>-0.03890698104637393</v>
+        <v>0.1092970696481632</v>
       </c>
       <c r="G24">
-        <v>-0.007006824599362061</v>
+        <v>-0.006271959806381299</v>
       </c>
       <c r="H24">
-        <v>-0.0447348661549324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.0004667087777176742</v>
+      </c>
+      <c r="I24">
+        <v>0.06373500877756787</v>
+      </c>
+      <c r="J24">
+        <v>-0.01382770324008968</v>
+      </c>
+      <c r="K24">
+        <v>-0.07437611996874442</v>
+      </c>
+      <c r="L24">
+        <v>0.01456442874691573</v>
+      </c>
+      <c r="M24">
+        <v>-0.08612939693387947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06858057842150866</v>
+        <v>-0.07460235524832824</v>
       </c>
       <c r="C25">
-        <v>0.04046979068779453</v>
+        <v>0.05105944540370835</v>
       </c>
       <c r="D25">
-        <v>0.02988923375670989</v>
+        <v>-0.03363762163514745</v>
       </c>
       <c r="E25">
-        <v>0.05086985975564229</v>
+        <v>0.01687909773810321</v>
       </c>
       <c r="F25">
-        <v>-0.05279142924845762</v>
+        <v>0.1154622618578412</v>
       </c>
       <c r="G25">
-        <v>-0.001240642626268978</v>
+        <v>-0.02011334271750335</v>
       </c>
       <c r="H25">
-        <v>-0.01479912274090476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.01147297785815743</v>
+      </c>
+      <c r="I25">
+        <v>0.06674712556677405</v>
+      </c>
+      <c r="J25">
+        <v>-0.004403676135060668</v>
+      </c>
+      <c r="K25">
+        <v>-0.08766863966278436</v>
+      </c>
+      <c r="L25">
+        <v>0.03154800042169659</v>
+      </c>
+      <c r="M25">
+        <v>-0.09352176450456727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04348705184992383</v>
+        <v>-0.04292888251439764</v>
       </c>
       <c r="C26">
-        <v>0.03468461764897053</v>
+        <v>0.02278163041416913</v>
       </c>
       <c r="D26">
-        <v>0.03769072703945903</v>
+        <v>0.0129186886059414</v>
       </c>
       <c r="E26">
-        <v>-0.001339510979307526</v>
+        <v>0.0005897119798105794</v>
       </c>
       <c r="F26">
-        <v>0.005540016991526735</v>
+        <v>0.0338405178476344</v>
       </c>
       <c r="G26">
-        <v>0.03163841117614149</v>
+        <v>-0.007518578706226652</v>
       </c>
       <c r="H26">
-        <v>-0.0125490162320077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.02295511160975309</v>
+      </c>
+      <c r="I26">
+        <v>0.03608597966231494</v>
+      </c>
+      <c r="J26">
+        <v>0.0267990387812448</v>
+      </c>
+      <c r="K26">
+        <v>0.07915445686232306</v>
+      </c>
+      <c r="L26">
+        <v>-0.13499955025095</v>
+      </c>
+      <c r="M26">
+        <v>-0.009800130193255166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1099376851704663</v>
+        <v>-0.143179994300034</v>
       </c>
       <c r="C28">
-        <v>-0.2999104646301066</v>
+        <v>-0.2858438093141879</v>
       </c>
       <c r="D28">
-        <v>0.0244575905490525</v>
+        <v>-0.01378612864611537</v>
       </c>
       <c r="E28">
-        <v>-0.01607438905838586</v>
+        <v>0.0278514065762616</v>
       </c>
       <c r="F28">
-        <v>0.06179643754031553</v>
+        <v>-0.001558442030896441</v>
       </c>
       <c r="G28">
-        <v>0.0007144057662638914</v>
+        <v>0.006309594273938652</v>
       </c>
       <c r="H28">
-        <v>-0.05298406893004432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.006240514446375513</v>
+      </c>
+      <c r="I28">
+        <v>0.0002401838631561829</v>
+      </c>
+      <c r="J28">
+        <v>0.01251660612408247</v>
+      </c>
+      <c r="K28">
+        <v>-0.008271555444308146</v>
+      </c>
+      <c r="L28">
+        <v>-0.04725242533127584</v>
+      </c>
+      <c r="M28">
+        <v>0.03157562553874887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05362797361389679</v>
+        <v>-0.04413793185645531</v>
       </c>
       <c r="C29">
-        <v>0.01993894605052078</v>
+        <v>0.02811985916282876</v>
       </c>
       <c r="D29">
-        <v>0.007302313307746123</v>
+        <v>-0.002800590730991463</v>
       </c>
       <c r="E29">
-        <v>0.02503314510510337</v>
+        <v>0.01879639623148727</v>
       </c>
       <c r="F29">
-        <v>0.006751716807279777</v>
+        <v>0.05929043194304045</v>
       </c>
       <c r="G29">
-        <v>0.01212805926751694</v>
+        <v>-0.02773376902973407</v>
       </c>
       <c r="H29">
-        <v>0.02153464966945548</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.0332719334924713</v>
+      </c>
+      <c r="I29">
+        <v>0.01279103155362365</v>
+      </c>
+      <c r="J29">
+        <v>0.05494539651381972</v>
+      </c>
+      <c r="K29">
+        <v>0.03279384481673186</v>
+      </c>
+      <c r="L29">
+        <v>-0.04053265984905408</v>
+      </c>
+      <c r="M29">
+        <v>0.005447306222331004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.131202352517399</v>
+        <v>-0.09821451664941455</v>
       </c>
       <c r="C30">
-        <v>0.0531125125198583</v>
+        <v>0.06381705610243886</v>
       </c>
       <c r="D30">
-        <v>0.06728630107139853</v>
+        <v>0.003597794689317757</v>
       </c>
       <c r="E30">
-        <v>0.09385545925453838</v>
+        <v>0.02678054108025126</v>
       </c>
       <c r="F30">
-        <v>0.01431407513810935</v>
+        <v>0.1695291877077409</v>
       </c>
       <c r="G30">
-        <v>-0.01005302315965898</v>
+        <v>-0.01065458463939276</v>
       </c>
       <c r="H30">
-        <v>-0.053558455329736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1245075649176357</v>
+      </c>
+      <c r="I30">
+        <v>0.2062943116188242</v>
+      </c>
+      <c r="J30">
+        <v>0.219513101237434</v>
+      </c>
+      <c r="K30">
+        <v>-0.07477502906512844</v>
+      </c>
+      <c r="L30">
+        <v>-0.1737445479133801</v>
+      </c>
+      <c r="M30">
+        <v>0.3486551689152523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05099381515564736</v>
+        <v>-0.03538062114283664</v>
       </c>
       <c r="C31">
-        <v>0.02694231343240078</v>
+        <v>0.04667334812595093</v>
       </c>
       <c r="D31">
-        <v>-0.008104570688065714</v>
+        <v>0.005350337288132819</v>
       </c>
       <c r="E31">
-        <v>-0.01186310123092708</v>
+        <v>-0.01002595343740958</v>
       </c>
       <c r="F31">
-        <v>0.008098502763881747</v>
+        <v>0.02029299160970417</v>
       </c>
       <c r="G31">
-        <v>0.0429892315871399</v>
+        <v>-0.02708066379750599</v>
       </c>
       <c r="H31">
-        <v>0.001532234476600882</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04130614721825106</v>
+      </c>
+      <c r="I31">
+        <v>-0.01841950981837016</v>
+      </c>
+      <c r="J31">
+        <v>0.02305385867319894</v>
+      </c>
+      <c r="K31">
+        <v>-0.01031881853361368</v>
+      </c>
+      <c r="L31">
+        <v>-0.0162473621805847</v>
+      </c>
+      <c r="M31">
+        <v>-0.007599444308702938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.0212740432778573</v>
+        <v>-0.04151886565275099</v>
       </c>
       <c r="C32">
-        <v>-0.01927037014578006</v>
+        <v>-0.004473371765363456</v>
       </c>
       <c r="D32">
-        <v>-0.02232249947765794</v>
+        <v>-0.01067031063998506</v>
       </c>
       <c r="E32">
-        <v>0.08764801569041411</v>
+        <v>0.006164491012179108</v>
       </c>
       <c r="F32">
-        <v>-0.05867968302154798</v>
+        <v>0.08731333342721913</v>
       </c>
       <c r="G32">
-        <v>0.0255435493387576</v>
+        <v>0.02204760435912955</v>
       </c>
       <c r="H32">
-        <v>-0.05566929557192535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.07449517445124459</v>
+      </c>
+      <c r="I32">
+        <v>-0.03237805084632285</v>
+      </c>
+      <c r="J32">
+        <v>-0.04624810559316458</v>
+      </c>
+      <c r="K32">
+        <v>-0.01124687299006439</v>
+      </c>
+      <c r="L32">
+        <v>-0.04954963566436078</v>
+      </c>
+      <c r="M32">
+        <v>0.1543582252607029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1006359759469652</v>
+        <v>-0.09952198614454756</v>
       </c>
       <c r="C33">
-        <v>0.04272262548996525</v>
+        <v>0.06814543316207469</v>
       </c>
       <c r="D33">
-        <v>-0.001599236242531842</v>
+        <v>-0.009435937337782247</v>
       </c>
       <c r="E33">
-        <v>0.007739469321418931</v>
+        <v>-0.01405638490242622</v>
       </c>
       <c r="F33">
-        <v>-0.03835309286610625</v>
+        <v>0.07108041086569473</v>
       </c>
       <c r="G33">
-        <v>0.03469420720921645</v>
+        <v>-0.02205556581027524</v>
       </c>
       <c r="H33">
-        <v>-0.01698523725454023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.03297767701295949</v>
+      </c>
+      <c r="I33">
+        <v>0.04239729596912655</v>
+      </c>
+      <c r="J33">
+        <v>0.04213724975133305</v>
+      </c>
+      <c r="K33">
+        <v>0.03275019053301076</v>
+      </c>
+      <c r="L33">
+        <v>-0.005695023792170671</v>
+      </c>
+      <c r="M33">
+        <v>-0.004027709973684364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05631317500187275</v>
+        <v>-0.06347768346996197</v>
       </c>
       <c r="C34">
-        <v>0.08134099514267867</v>
+        <v>0.0642962972637799</v>
       </c>
       <c r="D34">
-        <v>0.02124841490420333</v>
+        <v>-0.02601237252435419</v>
       </c>
       <c r="E34">
-        <v>0.03725622664138595</v>
+        <v>0.01426733639840473</v>
       </c>
       <c r="F34">
-        <v>-0.03299271564860745</v>
+        <v>0.09687968734805794</v>
       </c>
       <c r="G34">
-        <v>-0.01093981135978959</v>
+        <v>-0.009417050289736635</v>
       </c>
       <c r="H34">
-        <v>-0.02994979703238894</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.02164428715659099</v>
+      </c>
+      <c r="I34">
+        <v>0.05205993800547677</v>
+      </c>
+      <c r="J34">
+        <v>-0.00461184649895752</v>
+      </c>
+      <c r="K34">
+        <v>-0.05705479377568069</v>
+      </c>
+      <c r="L34">
+        <v>0.01122803447943931</v>
+      </c>
+      <c r="M34">
+        <v>-0.1154722697146233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04287298954495476</v>
+        <v>-0.02635462802146559</v>
       </c>
       <c r="C35">
-        <v>0.03723189509461852</v>
+        <v>0.02728753731246889</v>
       </c>
       <c r="D35">
-        <v>0.006060782483523599</v>
+        <v>-0.001141869738463619</v>
       </c>
       <c r="E35">
-        <v>0.01188360998203199</v>
+        <v>-0.003083558402512151</v>
       </c>
       <c r="F35">
-        <v>-0.012273335926852</v>
+        <v>0.02775192122993387</v>
       </c>
       <c r="G35">
-        <v>0.006242304236980276</v>
+        <v>-0.01319947192291558</v>
       </c>
       <c r="H35">
-        <v>-0.01323498455301743</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.01331127927350568</v>
+      </c>
+      <c r="I35">
+        <v>0.04822955826549338</v>
+      </c>
+      <c r="J35">
+        <v>0.01738886458667652</v>
+      </c>
+      <c r="K35">
+        <v>-0.0232630465658883</v>
+      </c>
+      <c r="L35">
+        <v>-0.06313993460641661</v>
+      </c>
+      <c r="M35">
+        <v>-0.0035371259887733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03538012131028893</v>
+        <v>-0.0299477855197596</v>
       </c>
       <c r="C36">
-        <v>0.02137022102081187</v>
+        <v>0.02137691752106887</v>
       </c>
       <c r="D36">
-        <v>0.02490061775781562</v>
+        <v>0.01344881558372579</v>
       </c>
       <c r="E36">
-        <v>0.02783995874600385</v>
+        <v>0.01236312822548972</v>
       </c>
       <c r="F36">
-        <v>-0.02022348513652936</v>
+        <v>0.06270940351574493</v>
       </c>
       <c r="G36">
-        <v>0.02191649967856897</v>
+        <v>-0.00562245101081705</v>
       </c>
       <c r="H36">
-        <v>0.01161291109592297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.0142510456328212</v>
+      </c>
+      <c r="I36">
+        <v>0.02282441359218898</v>
+      </c>
+      <c r="J36">
+        <v>0.04933889780604884</v>
+      </c>
+      <c r="K36">
+        <v>0.0178034779541459</v>
+      </c>
+      <c r="L36">
+        <v>-0.03653513570743986</v>
+      </c>
+      <c r="M36">
+        <v>-0.03911066671427296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04067933173103987</v>
+        <v>-0.02984133907658591</v>
       </c>
       <c r="C38">
-        <v>0.03327446042548984</v>
+        <v>0.04710933489322527</v>
       </c>
       <c r="D38">
-        <v>-0.02553908503745301</v>
+        <v>0.02570706255623745</v>
       </c>
       <c r="E38">
-        <v>0.03588924784908087</v>
+        <v>0.0016712868068643</v>
       </c>
       <c r="F38">
-        <v>-0.0110837752367271</v>
+        <v>-0.04394944928849302</v>
       </c>
       <c r="G38">
-        <v>0.01121107329933486</v>
+        <v>-0.04768673781979221</v>
       </c>
       <c r="H38">
-        <v>-0.04397148290562432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.03346222629733955</v>
+      </c>
+      <c r="I38">
+        <v>0.03668730790516177</v>
+      </c>
+      <c r="J38">
+        <v>-0.03768749362307245</v>
+      </c>
+      <c r="K38">
+        <v>0.109198029946099</v>
+      </c>
+      <c r="L38">
+        <v>-0.05830941353802455</v>
+      </c>
+      <c r="M38">
+        <v>0.1312368175046967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09876999045111647</v>
+        <v>-0.09922983309408427</v>
       </c>
       <c r="C39">
-        <v>0.09878036765952804</v>
+        <v>0.09452798475094219</v>
       </c>
       <c r="D39">
-        <v>0.01672381673055532</v>
+        <v>-0.08414135196754245</v>
       </c>
       <c r="E39">
-        <v>0.03668257463586144</v>
+        <v>-0.01328961109442195</v>
       </c>
       <c r="F39">
-        <v>-0.04392180583879829</v>
+        <v>0.1489858680685475</v>
       </c>
       <c r="G39">
-        <v>-0.03590714599850257</v>
+        <v>-0.07515149020538982</v>
       </c>
       <c r="H39">
-        <v>-0.1281188870127766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.06257676664996391</v>
+      </c>
+      <c r="I39">
+        <v>0.1339000807964476</v>
+      </c>
+      <c r="J39">
+        <v>-0.03074976466929592</v>
+      </c>
+      <c r="K39">
+        <v>-0.2056472668226719</v>
+      </c>
+      <c r="L39">
+        <v>-0.03336788664351818</v>
+      </c>
+      <c r="M39">
+        <v>0.07191233357175662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.05316001180555403</v>
+        <v>-0.03690490868720284</v>
       </c>
       <c r="C40">
-        <v>0.04438197946208727</v>
+        <v>0.05738399768575778</v>
       </c>
       <c r="D40">
-        <v>-0.05362519623654951</v>
+        <v>0.05025026893082866</v>
       </c>
       <c r="E40">
-        <v>0.1408239296862878</v>
+        <v>-0.002755678907381196</v>
       </c>
       <c r="F40">
-        <v>-0.05099137026958613</v>
+        <v>0.1151718549233209</v>
       </c>
       <c r="G40">
-        <v>0.03463016565708808</v>
+        <v>0.06944341837797947</v>
       </c>
       <c r="H40">
-        <v>-0.1261428796070992</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.002743590422285526</v>
+      </c>
+      <c r="I40">
+        <v>0.08683419434756434</v>
+      </c>
+      <c r="J40">
+        <v>-0.05543302379911181</v>
+      </c>
+      <c r="K40">
+        <v>0.07873443659358473</v>
+      </c>
+      <c r="L40">
+        <v>-0.09276025450339556</v>
+      </c>
+      <c r="M40">
+        <v>0.02128443895425276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04622724483510041</v>
+        <v>-0.03808716570644905</v>
       </c>
       <c r="C41">
-        <v>0.05003450660254061</v>
+        <v>0.0362058013434328</v>
       </c>
       <c r="D41">
-        <v>0.01065964807862727</v>
+        <v>-0.01672801193539906</v>
       </c>
       <c r="E41">
-        <v>0.001221549007193278</v>
+        <v>0.0003402224142445704</v>
       </c>
       <c r="F41">
-        <v>-0.02435592587965494</v>
+        <v>0.01576285432605501</v>
       </c>
       <c r="G41">
-        <v>0.01151231616855091</v>
+        <v>-0.02769962666319396</v>
       </c>
       <c r="H41">
-        <v>-0.03411451165443543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.005534344306077037</v>
+      </c>
+      <c r="I41">
+        <v>0.009000535712900397</v>
+      </c>
+      <c r="J41">
+        <v>-0.01124472343753875</v>
+      </c>
+      <c r="K41">
+        <v>0.01624905766233948</v>
+      </c>
+      <c r="L41">
+        <v>-0.04594597671744481</v>
+      </c>
+      <c r="M41">
+        <v>-0.02622206866611313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05901063372215701</v>
+        <v>-0.05146627905970893</v>
       </c>
       <c r="C43">
-        <v>0.04239734293978659</v>
+        <v>0.04655504138317248</v>
       </c>
       <c r="D43">
-        <v>0.02516146836110938</v>
+        <v>0.01265549709830361</v>
       </c>
       <c r="E43">
-        <v>0.0264521191486603</v>
+        <v>0.01244906618795558</v>
       </c>
       <c r="F43">
-        <v>0.006678624856858552</v>
+        <v>0.01189178777624086</v>
       </c>
       <c r="G43">
-        <v>0.02250749505809188</v>
+        <v>-0.05135252455990855</v>
       </c>
       <c r="H43">
-        <v>-0.02223220551282845</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01126157612755136</v>
+      </c>
+      <c r="I43">
+        <v>0.008956941198197257</v>
+      </c>
+      <c r="J43">
+        <v>0.001334459269002439</v>
+      </c>
+      <c r="K43">
+        <v>-0.007617458968364844</v>
+      </c>
+      <c r="L43">
+        <v>-0.03104766476346849</v>
+      </c>
+      <c r="M43">
+        <v>-0.01446353259979774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05251330501894728</v>
+        <v>-0.08352024837748794</v>
       </c>
       <c r="C44">
-        <v>0.007927959839286194</v>
+        <v>0.05722339585516638</v>
       </c>
       <c r="D44">
-        <v>0.06716922725769375</v>
+        <v>0.07250826409822554</v>
       </c>
       <c r="E44">
-        <v>0.1276536299478189</v>
+        <v>0.1006744670766281</v>
       </c>
       <c r="F44">
-        <v>-0.05929643712251505</v>
+        <v>0.1546447596013637</v>
       </c>
       <c r="G44">
-        <v>-0.02439882283169338</v>
+        <v>-0.01356920926851912</v>
       </c>
       <c r="H44">
-        <v>-0.02394954776091207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.051019284042233</v>
+      </c>
+      <c r="I44">
+        <v>0.09874748988113663</v>
+      </c>
+      <c r="J44">
+        <v>-0.01563231800225985</v>
+      </c>
+      <c r="K44">
+        <v>-0.006073346122531443</v>
+      </c>
+      <c r="L44">
+        <v>-0.04077693877167995</v>
+      </c>
+      <c r="M44">
+        <v>0.06275226471088335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02172664898390583</v>
+        <v>-0.03245077277075867</v>
       </c>
       <c r="C46">
-        <v>0.04453520619487839</v>
+        <v>0.03928578248722694</v>
       </c>
       <c r="D46">
-        <v>0.01299861839665338</v>
+        <v>0.0413180493689658</v>
       </c>
       <c r="E46">
-        <v>0.04257475036282632</v>
+        <v>0.03760243554373997</v>
       </c>
       <c r="F46">
-        <v>-0.004524550483941289</v>
+        <v>0.03343099427252838</v>
       </c>
       <c r="G46">
-        <v>0.001149265612522546</v>
+        <v>0.01434068653804923</v>
       </c>
       <c r="H46">
-        <v>-0.01065063962937425</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05878630444842426</v>
+      </c>
+      <c r="I46">
+        <v>0.009201120377540601</v>
+      </c>
+      <c r="J46">
+        <v>0.04849508408129601</v>
+      </c>
+      <c r="K46">
+        <v>0.05547515419682717</v>
+      </c>
+      <c r="L46">
+        <v>-0.06506354883527821</v>
+      </c>
+      <c r="M46">
+        <v>-0.0165096328439765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02818615875443305</v>
+        <v>-0.04658374018226159</v>
       </c>
       <c r="C47">
-        <v>0.0009046517103905487</v>
+        <v>0.02849778058154796</v>
       </c>
       <c r="D47">
-        <v>-0.01577307943731763</v>
+        <v>0.01911778932577883</v>
       </c>
       <c r="E47">
-        <v>0.07002080613325512</v>
+        <v>0.008851542391462384</v>
       </c>
       <c r="F47">
-        <v>-0.009290160048653767</v>
+        <v>0.04052512228616602</v>
       </c>
       <c r="G47">
-        <v>0.0236216402844068</v>
+        <v>-0.01791030585813465</v>
       </c>
       <c r="H47">
-        <v>0.04126047062568829</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.005900800588081782</v>
+      </c>
+      <c r="I47">
+        <v>0.0286858909124581</v>
+      </c>
+      <c r="J47">
+        <v>0.04343158590795783</v>
+      </c>
+      <c r="K47">
+        <v>0.03078739059272441</v>
+      </c>
+      <c r="L47">
+        <v>-0.01429592700919546</v>
+      </c>
+      <c r="M47">
+        <v>-0.04621947542649411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03352611678809869</v>
+        <v>-0.04157932214375119</v>
       </c>
       <c r="C48">
-        <v>0.03036130568635007</v>
+        <v>0.02105529684515661</v>
       </c>
       <c r="D48">
-        <v>0.00238889680168881</v>
+        <v>0.0111233883619397</v>
       </c>
       <c r="E48">
-        <v>0.0448025986899311</v>
+        <v>0.002483878609260917</v>
       </c>
       <c r="F48">
-        <v>0.001898342543032102</v>
+        <v>0.06771432120314493</v>
       </c>
       <c r="G48">
-        <v>0.04617932693484715</v>
+        <v>0.03434507221364027</v>
       </c>
       <c r="H48">
-        <v>-0.00677966378108459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.02737157205471577</v>
+      </c>
+      <c r="I48">
+        <v>0.02434866975555618</v>
+      </c>
+      <c r="J48">
+        <v>0.04868453291565909</v>
+      </c>
+      <c r="K48">
+        <v>-0.01961381952620109</v>
+      </c>
+      <c r="L48">
+        <v>-0.04941268860723672</v>
+      </c>
+      <c r="M48">
+        <v>-0.03409565880731406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2033741027394156</v>
+        <v>-0.2252957342907171</v>
       </c>
       <c r="C49">
-        <v>0.1187803343580373</v>
+        <v>0.07524090731400244</v>
       </c>
       <c r="D49">
-        <v>0.07986504762621992</v>
+        <v>-0.0554154092006298</v>
       </c>
       <c r="E49">
-        <v>-0.06876826820408026</v>
+        <v>0.02476648275520289</v>
       </c>
       <c r="F49">
-        <v>0.1411711214599422</v>
+        <v>-0.2430378722547158</v>
       </c>
       <c r="G49">
-        <v>-0.1377834868202938</v>
+        <v>0.144185589227036</v>
       </c>
       <c r="H49">
-        <v>-0.01519439709511354</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.03633316709934831</v>
+      </c>
+      <c r="I49">
+        <v>0.1403030169586003</v>
+      </c>
+      <c r="J49">
+        <v>-0.1073955014666466</v>
+      </c>
+      <c r="K49">
+        <v>-0.07410819161798946</v>
+      </c>
+      <c r="L49">
+        <v>0.1471499666903101</v>
+      </c>
+      <c r="M49">
+        <v>-0.07769642220225816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.0558599821203016</v>
+        <v>-0.04348019240319737</v>
       </c>
       <c r="C50">
-        <v>0.02681489921770577</v>
+        <v>0.04359008091832248</v>
       </c>
       <c r="D50">
-        <v>-0.003505219632264387</v>
+        <v>0.003065261411986372</v>
       </c>
       <c r="E50">
-        <v>0.01976793321644571</v>
+        <v>-0.01206865284928594</v>
       </c>
       <c r="F50">
-        <v>-0.01397522405886734</v>
+        <v>0.04409208030648157</v>
       </c>
       <c r="G50">
-        <v>0.06467193972275072</v>
+        <v>-0.03433507563691441</v>
       </c>
       <c r="H50">
-        <v>0.03360272110758508</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.0257873279546791</v>
+      </c>
+      <c r="I50">
+        <v>-0.005619685725539081</v>
+      </c>
+      <c r="J50">
+        <v>0.05096620583408466</v>
+      </c>
+      <c r="K50">
+        <v>0.03167846572338492</v>
+      </c>
+      <c r="L50">
+        <v>-0.02148824204524684</v>
+      </c>
+      <c r="M50">
+        <v>0.01724937371104258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.03078812150086616</v>
+        <v>-0.0293975255767836</v>
       </c>
       <c r="C51">
-        <v>0.01324331354131211</v>
+        <v>0.00536687546302535</v>
       </c>
       <c r="D51">
-        <v>0.0006847612871384366</v>
+        <v>-0.001448315052884954</v>
       </c>
       <c r="E51">
-        <v>0.01493306134042406</v>
+        <v>0.01928737090540203</v>
       </c>
       <c r="F51">
-        <v>-0.006449673273059411</v>
+        <v>-0.0164076265399247</v>
       </c>
       <c r="G51">
-        <v>-0.01880750500551778</v>
+        <v>-0.007933809998218792</v>
       </c>
       <c r="H51">
-        <v>-0.01408495102148584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.0171867531359679</v>
+      </c>
+      <c r="I51">
+        <v>0.01299745951225098</v>
+      </c>
+      <c r="J51">
+        <v>-0.02595650206681973</v>
+      </c>
+      <c r="K51">
+        <v>-0.0613899151456609</v>
+      </c>
+      <c r="L51">
+        <v>0.05974587319391068</v>
+      </c>
+      <c r="M51">
+        <v>0.004965897454442415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.0209133528990885</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01027137358883928</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01283916504517319</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.004597484093909384</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.008805254375408971</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.02009852732187144</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.002686671658228479</v>
+      </c>
+      <c r="I52">
+        <v>-0.008179238841524192</v>
+      </c>
+      <c r="J52">
+        <v>-0.007517912458306879</v>
+      </c>
+      <c r="K52">
+        <v>-0.01076058589058797</v>
+      </c>
+      <c r="L52">
+        <v>-0.009669091331257819</v>
+      </c>
+      <c r="M52">
+        <v>0.02762174959582196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.168215962219237</v>
+        <v>-0.1553809273346173</v>
       </c>
       <c r="C53">
-        <v>0.01216313545015319</v>
+        <v>0.04933237306094194</v>
       </c>
       <c r="D53">
-        <v>0.0163651315447732</v>
+        <v>-0.009720213592588373</v>
       </c>
       <c r="E53">
-        <v>-0.07329571702286768</v>
+        <v>-0.00999887825542806</v>
       </c>
       <c r="F53">
-        <v>-0.2195318356277663</v>
+        <v>-0.05082993887645923</v>
       </c>
       <c r="G53">
-        <v>0.1606185278556412</v>
+        <v>-0.2368357974481071</v>
       </c>
       <c r="H53">
-        <v>0.03202587251263928</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.07750455018890128</v>
+      </c>
+      <c r="I53">
+        <v>-0.07670658759073179</v>
+      </c>
+      <c r="J53">
+        <v>0.001726682292739039</v>
+      </c>
+      <c r="K53">
+        <v>0.09994318477630548</v>
+      </c>
+      <c r="L53">
+        <v>0.06982210210658782</v>
+      </c>
+      <c r="M53">
+        <v>0.09985849117184938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04614354832961478</v>
+        <v>-0.05770196809245978</v>
       </c>
       <c r="C54">
-        <v>0.0305204226497734</v>
+        <v>0.03636825798208129</v>
       </c>
       <c r="D54">
-        <v>0.026533734035619</v>
+        <v>0.01598937598405173</v>
       </c>
       <c r="E54">
-        <v>0.04648956839476526</v>
+        <v>0.02911591152470927</v>
       </c>
       <c r="F54">
-        <v>-0.008069500543446909</v>
+        <v>0.1154955325495973</v>
       </c>
       <c r="G54">
-        <v>0.01578331543586681</v>
+        <v>0.02740468893158582</v>
       </c>
       <c r="H54">
-        <v>-0.007217759608246758</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.04705339243373951</v>
+      </c>
+      <c r="I54">
+        <v>-0.04299149080084195</v>
+      </c>
+      <c r="J54">
+        <v>0.07072658312439624</v>
+      </c>
+      <c r="K54">
+        <v>0.04309440392929303</v>
+      </c>
+      <c r="L54">
+        <v>-0.1081018601384186</v>
+      </c>
+      <c r="M54">
+        <v>-0.03242685319839596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09119823399165015</v>
+        <v>-0.08699324661951424</v>
       </c>
       <c r="C55">
-        <v>0.001640485917791023</v>
+        <v>0.0420733332784731</v>
       </c>
       <c r="D55">
-        <v>0.01145622569804827</v>
+        <v>-0.02664730270268308</v>
       </c>
       <c r="E55">
-        <v>-0.01023567920086544</v>
+        <v>0.003240926298055167</v>
       </c>
       <c r="F55">
-        <v>-0.1832564091871528</v>
+        <v>0.01979668643557159</v>
       </c>
       <c r="G55">
-        <v>0.1431699776699266</v>
+        <v>-0.1535961545378462</v>
       </c>
       <c r="H55">
-        <v>0.04928104811369648</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.06552920886104718</v>
+      </c>
+      <c r="I55">
+        <v>-0.04816770525212425</v>
+      </c>
+      <c r="J55">
+        <v>0.00852981074841494</v>
+      </c>
+      <c r="K55">
+        <v>0.06714078281107723</v>
+      </c>
+      <c r="L55">
+        <v>0.05477221318659039</v>
+      </c>
+      <c r="M55">
+        <v>0.01302157300436436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1632598951609363</v>
+        <v>-0.1494776590156278</v>
       </c>
       <c r="C56">
-        <v>0.01338232496797202</v>
+        <v>0.07217135536904234</v>
       </c>
       <c r="D56">
-        <v>0.03594645305420819</v>
+        <v>-0.0290817906825497</v>
       </c>
       <c r="E56">
-        <v>-0.07027128057427248</v>
+        <v>0.009349857535912297</v>
       </c>
       <c r="F56">
-        <v>-0.1803102764870978</v>
+        <v>-0.02583527500145606</v>
       </c>
       <c r="G56">
-        <v>0.1771640824523297</v>
+        <v>-0.2272678456121477</v>
       </c>
       <c r="H56">
-        <v>0.04382668952558354</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.05975797828136216</v>
+      </c>
+      <c r="I56">
+        <v>-0.07658940032426571</v>
+      </c>
+      <c r="J56">
+        <v>-0.0235196913292974</v>
+      </c>
+      <c r="K56">
+        <v>0.1072887142273078</v>
+      </c>
+      <c r="L56">
+        <v>0.05666885593717839</v>
+      </c>
+      <c r="M56">
+        <v>0.0486874106804105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.04268714976094884</v>
+        <v>-0.03519518206625415</v>
       </c>
       <c r="C58">
-        <v>0.02831004739748707</v>
+        <v>0.03281490620821877</v>
       </c>
       <c r="D58">
-        <v>0.003633277110342492</v>
+        <v>0.08253334407055601</v>
       </c>
       <c r="E58">
-        <v>0.3176478977074759</v>
+        <v>0.01791460900476395</v>
       </c>
       <c r="F58">
-        <v>0.2097801433476282</v>
+        <v>0.03907897362267591</v>
       </c>
       <c r="G58">
-        <v>0.001230511534271978</v>
+        <v>0.0714144285267488</v>
       </c>
       <c r="H58">
-        <v>0.1843055045750291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.04015917704839393</v>
+      </c>
+      <c r="I58">
+        <v>0.09064394493932516</v>
+      </c>
+      <c r="J58">
+        <v>0.2030025461774755</v>
+      </c>
+      <c r="K58">
+        <v>-0.3627585575964334</v>
+      </c>
+      <c r="L58">
+        <v>-0.0115151891811024</v>
+      </c>
+      <c r="M58">
+        <v>-0.1629541778760834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2365964394144779</v>
+        <v>-0.2269368859286031</v>
       </c>
       <c r="C59">
-        <v>-0.4079437417689127</v>
+        <v>-0.2991084423480118</v>
       </c>
       <c r="D59">
-        <v>0.01411062560696666</v>
+        <v>-0.04870059835971666</v>
       </c>
       <c r="E59">
-        <v>0.01136230336520743</v>
+        <v>0.006936527650084305</v>
       </c>
       <c r="F59">
-        <v>-0.07615307100814009</v>
+        <v>0.03729062769123102</v>
       </c>
       <c r="G59">
-        <v>-0.004624455469109208</v>
+        <v>-0.0790149399147459</v>
       </c>
       <c r="H59">
-        <v>-0.08161144437382371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.0189373645127807</v>
+      </c>
+      <c r="I59">
+        <v>-0.0832204178495143</v>
+      </c>
+      <c r="J59">
+        <v>-0.1105611462110342</v>
+      </c>
+      <c r="K59">
+        <v>-0.02797752815118811</v>
+      </c>
+      <c r="L59">
+        <v>0.03021076973444187</v>
+      </c>
+      <c r="M59">
+        <v>0.03146597610322992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2531801569233685</v>
+        <v>-0.2425450626933742</v>
       </c>
       <c r="C60">
-        <v>0.06744478256935205</v>
+        <v>0.1168904196470169</v>
       </c>
       <c r="D60">
-        <v>0.09534199034649055</v>
+        <v>-0.06355918170619122</v>
       </c>
       <c r="E60">
-        <v>0.0006699735059733052</v>
+        <v>0.04798727331994582</v>
       </c>
       <c r="F60">
-        <v>0.05226016655653445</v>
+        <v>-0.1051344896802738</v>
       </c>
       <c r="G60">
-        <v>-0.02032916935937969</v>
+        <v>0.05147865376127637</v>
       </c>
       <c r="H60">
-        <v>0.08598714495175991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.08636322723385309</v>
+      </c>
+      <c r="I60">
+        <v>-0.01082656022337665</v>
+      </c>
+      <c r="J60">
+        <v>0.05122433318007182</v>
+      </c>
+      <c r="K60">
+        <v>0.01694360531398273</v>
+      </c>
+      <c r="L60">
+        <v>0.2171228368311276</v>
+      </c>
+      <c r="M60">
+        <v>0.06855784383068052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08622904507478141</v>
+        <v>-0.09238274252702473</v>
       </c>
       <c r="C61">
-        <v>0.06269052334736057</v>
+        <v>0.06869439378212019</v>
       </c>
       <c r="D61">
-        <v>0.01376845101442676</v>
+        <v>-0.04643441035921508</v>
       </c>
       <c r="E61">
-        <v>0.00816213545297519</v>
+        <v>0.01577602421400452</v>
       </c>
       <c r="F61">
-        <v>-0.02064324125372213</v>
+        <v>0.1220251609459601</v>
       </c>
       <c r="G61">
-        <v>0.006531389640653153</v>
+        <v>-0.07432190429903875</v>
       </c>
       <c r="H61">
-        <v>-0.06751556519298992</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.006109285009002037</v>
+      </c>
+      <c r="I61">
+        <v>0.06534963215105288</v>
+      </c>
+      <c r="J61">
+        <v>-0.01717110234207747</v>
+      </c>
+      <c r="K61">
+        <v>-0.07583188066968077</v>
+      </c>
+      <c r="L61">
+        <v>-0.04876389334853116</v>
+      </c>
+      <c r="M61">
+        <v>0.01618049499739679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1593827214523717</v>
+        <v>-0.1402991453191361</v>
       </c>
       <c r="C62">
-        <v>0.05027153058890065</v>
+        <v>0.07219739094301909</v>
       </c>
       <c r="D62">
-        <v>-0.003071094077081823</v>
+        <v>-0.02654137879722034</v>
       </c>
       <c r="E62">
-        <v>-0.1201239908492045</v>
+        <v>-0.03882157325058509</v>
       </c>
       <c r="F62">
-        <v>-0.2269023616987129</v>
+        <v>-0.03077575618808813</v>
       </c>
       <c r="G62">
-        <v>0.1003121012535449</v>
+        <v>-0.1697625840280803</v>
       </c>
       <c r="H62">
-        <v>-0.01161479658237173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.08723778578550197</v>
+      </c>
+      <c r="I62">
+        <v>-0.06275442921464615</v>
+      </c>
+      <c r="J62">
+        <v>-0.02065858159977473</v>
+      </c>
+      <c r="K62">
+        <v>0.1694702499174603</v>
+      </c>
+      <c r="L62">
+        <v>0.03656876250221681</v>
+      </c>
+      <c r="M62">
+        <v>-0.005434281775830122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03932813256182074</v>
+        <v>-0.04594058370587534</v>
       </c>
       <c r="C63">
-        <v>0.04111514323669535</v>
+        <v>0.03045899972463623</v>
       </c>
       <c r="D63">
-        <v>0.003335442548462921</v>
+        <v>-0.008094215900935921</v>
       </c>
       <c r="E63">
-        <v>0.0003074683128564975</v>
+        <v>-0.01211427568036407</v>
       </c>
       <c r="F63">
-        <v>-0.01932879773803119</v>
+        <v>0.0656898332546544</v>
       </c>
       <c r="G63">
-        <v>0.01532512026158439</v>
+        <v>-0.005322527242044707</v>
       </c>
       <c r="H63">
-        <v>0.04383718928218801</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.01266499118419354</v>
+      </c>
+      <c r="I63">
+        <v>0.02011846707533236</v>
+      </c>
+      <c r="J63">
+        <v>0.05182837651598228</v>
+      </c>
+      <c r="K63">
+        <v>-0.0001617501848499652</v>
+      </c>
+      <c r="L63">
+        <v>-0.02086512115916758</v>
+      </c>
+      <c r="M63">
+        <v>-0.02244662938597701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.103602902748712</v>
+        <v>-0.09867725366974563</v>
       </c>
       <c r="C64">
-        <v>0.02613375206473377</v>
+        <v>0.04577103716808839</v>
       </c>
       <c r="D64">
-        <v>0.03009480429391236</v>
+        <v>0.004490150672565199</v>
       </c>
       <c r="E64">
-        <v>0.03631920585109954</v>
+        <v>0.0373316451532026</v>
       </c>
       <c r="F64">
-        <v>0.01133426712632941</v>
+        <v>0.05985124518441234</v>
       </c>
       <c r="G64">
-        <v>-0.01522359225476144</v>
+        <v>0.0001383022796988099</v>
       </c>
       <c r="H64">
-        <v>-0.04559979877821192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.03652617615229058</v>
+      </c>
+      <c r="I64">
+        <v>0.06437821352952483</v>
+      </c>
+      <c r="J64">
+        <v>0.0412472169119839</v>
+      </c>
+      <c r="K64">
+        <v>-0.03182676052525373</v>
+      </c>
+      <c r="L64">
+        <v>-0.0415918512852089</v>
+      </c>
+      <c r="M64">
+        <v>0.03088323929578943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1277863611552072</v>
+        <v>-0.1243016232486803</v>
       </c>
       <c r="C65">
-        <v>0.04457645869136195</v>
+        <v>0.04564396959567956</v>
       </c>
       <c r="D65">
-        <v>0.04385629890585744</v>
+        <v>-0.004363991731675981</v>
       </c>
       <c r="E65">
-        <v>0.09928562778825546</v>
+        <v>-0.01547528168910605</v>
       </c>
       <c r="F65">
-        <v>0.1131184661981098</v>
+        <v>0.02601245698994431</v>
       </c>
       <c r="G65">
-        <v>-0.09495216878475078</v>
+        <v>0.2336796901535045</v>
       </c>
       <c r="H65">
-        <v>0.6776220817433586</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.1889900857452198</v>
+      </c>
+      <c r="I65">
+        <v>-0.1862702519659262</v>
+      </c>
+      <c r="J65">
+        <v>0.5410508956531502</v>
+      </c>
+      <c r="K65">
+        <v>0.2226012736086435</v>
+      </c>
+      <c r="L65">
+        <v>0.2359213853647099</v>
+      </c>
+      <c r="M65">
+        <v>0.113943980994014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1551473885941478</v>
+        <v>-0.1258085762367858</v>
       </c>
       <c r="C66">
-        <v>0.1364312472749255</v>
+        <v>0.1328246298697407</v>
       </c>
       <c r="D66">
-        <v>0.02902146830748888</v>
+        <v>-0.09966591050001872</v>
       </c>
       <c r="E66">
-        <v>-0.000651676544311186</v>
+        <v>-0.03060488324524628</v>
       </c>
       <c r="F66">
-        <v>-0.09637233351540002</v>
+        <v>0.1532165622852528</v>
       </c>
       <c r="G66">
-        <v>-0.08033762546210724</v>
+        <v>-0.0807031831973507</v>
       </c>
       <c r="H66">
-        <v>-0.2711603246792266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.05363981741582861</v>
+      </c>
+      <c r="I66">
+        <v>0.1759165934294312</v>
+      </c>
+      <c r="J66">
+        <v>-0.1004216789066042</v>
+      </c>
+      <c r="K66">
+        <v>-0.1895005612160449</v>
+      </c>
+      <c r="L66">
+        <v>-0.02792919209735341</v>
+      </c>
+      <c r="M66">
+        <v>0.1393578020774321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07781931572835975</v>
+        <v>-0.08040301752931678</v>
       </c>
       <c r="C67">
-        <v>0.05113006797836451</v>
+        <v>0.05776403903412865</v>
       </c>
       <c r="D67">
-        <v>0.003138093608400457</v>
+        <v>0.02237586764016716</v>
       </c>
       <c r="E67">
-        <v>0.005694160880690105</v>
+        <v>0.01640190485519714</v>
       </c>
       <c r="F67">
-        <v>-0.0011449290122901</v>
+        <v>-0.0440711263642497</v>
       </c>
       <c r="G67">
-        <v>-0.005151170458105825</v>
+        <v>-0.08404098587789616</v>
       </c>
       <c r="H67">
-        <v>-0.05974973282426384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.07218328264926245</v>
+      </c>
+      <c r="I67">
+        <v>0.02568630822043846</v>
+      </c>
+      <c r="J67">
+        <v>-0.08990285778911926</v>
+      </c>
+      <c r="K67">
+        <v>0.07948561545883152</v>
+      </c>
+      <c r="L67">
+        <v>-0.02801833064943008</v>
+      </c>
+      <c r="M67">
+        <v>0.1006818611416067</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09700579962738121</v>
+        <v>-0.1216349461249603</v>
       </c>
       <c r="C68">
-        <v>-0.2779301073226266</v>
+        <v>-0.2735746165215381</v>
       </c>
       <c r="D68">
-        <v>-0.01385255255198245</v>
+        <v>-0.01039489013259609</v>
       </c>
       <c r="E68">
-        <v>0.01118959612148459</v>
+        <v>0.001942210716458868</v>
       </c>
       <c r="F68">
-        <v>-0.00706669041577073</v>
+        <v>0.03505612806940486</v>
       </c>
       <c r="G68">
-        <v>0.04258151326279562</v>
+        <v>-0.02602999415311236</v>
       </c>
       <c r="H68">
-        <v>0.01527789456894807</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.003241428208083194</v>
+      </c>
+      <c r="I68">
+        <v>-0.004196858660245537</v>
+      </c>
+      <c r="J68">
+        <v>0.07078387599288596</v>
+      </c>
+      <c r="K68">
+        <v>0.008020755231682049</v>
+      </c>
+      <c r="L68">
+        <v>-0.00339573176942728</v>
+      </c>
+      <c r="M68">
+        <v>0.03534605978318707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04114453720091975</v>
+        <v>-0.04238503463568955</v>
       </c>
       <c r="C69">
-        <v>0.03188957939621606</v>
+        <v>0.02194817177541797</v>
       </c>
       <c r="D69">
-        <v>0.006405398698851046</v>
+        <v>0.006963844741956271</v>
       </c>
       <c r="E69">
-        <v>0.02083825844931575</v>
+        <v>0.0001641628060287963</v>
       </c>
       <c r="F69">
-        <v>-0.03761589434767789</v>
+        <v>0.01603086873257153</v>
       </c>
       <c r="G69">
-        <v>-0.00108685519745752</v>
+        <v>-0.02401479023722355</v>
       </c>
       <c r="H69">
-        <v>0.008624478151933946</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.0107096766773197</v>
+      </c>
+      <c r="I69">
+        <v>0.01764789008257016</v>
+      </c>
+      <c r="J69">
+        <v>0.003043594330374595</v>
+      </c>
+      <c r="K69">
+        <v>0.02296557235332741</v>
+      </c>
+      <c r="L69">
+        <v>0.001985437432675805</v>
+      </c>
+      <c r="M69">
+        <v>-0.07387526046620391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05097805778676186</v>
+        <v>-0.05260432744260744</v>
       </c>
       <c r="C70">
-        <v>-0.001358754257191953</v>
+        <v>0.03305850212857204</v>
       </c>
       <c r="D70">
-        <v>0.03942182848880974</v>
+        <v>-0.02278425465835258</v>
       </c>
       <c r="E70">
-        <v>-0.01724018622684053</v>
+        <v>0.01960751519526731</v>
       </c>
       <c r="F70">
-        <v>0.1060450354911555</v>
+        <v>-0.002891646070374207</v>
       </c>
       <c r="G70">
-        <v>-0.02880450405819614</v>
+        <v>0.06913212918039133</v>
       </c>
       <c r="H70">
-        <v>-0.03746846421489716</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01661411642695835</v>
+      </c>
+      <c r="I70">
+        <v>-0.02539234831336628</v>
+      </c>
+      <c r="J70">
+        <v>0.05353032838287584</v>
+      </c>
+      <c r="K70">
+        <v>0.1570612466209884</v>
+      </c>
+      <c r="L70">
+        <v>-0.2676758829773364</v>
+      </c>
+      <c r="M70">
+        <v>-0.1089640271447035</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1028792711389919</v>
+        <v>-0.1362570025598611</v>
       </c>
       <c r="C71">
-        <v>-0.2837053281090729</v>
+        <v>-0.2821241345995519</v>
       </c>
       <c r="D71">
-        <v>0.0195624427167073</v>
+        <v>-0.01470657498305969</v>
       </c>
       <c r="E71">
-        <v>0.001218426485966754</v>
+        <v>0.01985294521801725</v>
       </c>
       <c r="F71">
-        <v>0.0137212796830025</v>
+        <v>0.03373047834568277</v>
       </c>
       <c r="G71">
-        <v>0.02577488100824565</v>
+        <v>-0.02639867374599741</v>
       </c>
       <c r="H71">
-        <v>-0.008402226964903465</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.01431793867401481</v>
+      </c>
+      <c r="I71">
+        <v>0.025030294428133</v>
+      </c>
+      <c r="J71">
+        <v>0.03513048747826616</v>
+      </c>
+      <c r="K71">
+        <v>-0.00100833521590984</v>
+      </c>
+      <c r="L71">
+        <v>0.002590812295215374</v>
+      </c>
+      <c r="M71">
+        <v>0.02750621315405603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1785183389487492</v>
+        <v>-0.1429617018902606</v>
       </c>
       <c r="C72">
-        <v>0.04070624132731866</v>
+        <v>0.03091084309829048</v>
       </c>
       <c r="D72">
-        <v>-0.2412460492024818</v>
+        <v>0.008739877557762314</v>
       </c>
       <c r="E72">
-        <v>-0.03217838936127675</v>
+        <v>-0.1855583984136575</v>
       </c>
       <c r="F72">
-        <v>-0.07806627997561552</v>
+        <v>0.04943930330909582</v>
       </c>
       <c r="G72">
-        <v>-0.08726769476101628</v>
+        <v>-0.01106094689580428</v>
       </c>
       <c r="H72">
-        <v>0.09934933465134832</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.04712894398572696</v>
+      </c>
+      <c r="I72">
+        <v>-0.05882620170701282</v>
+      </c>
+      <c r="J72">
+        <v>0.03266381517097969</v>
+      </c>
+      <c r="K72">
+        <v>0.08886731636060166</v>
+      </c>
+      <c r="L72">
+        <v>0.1082521472329699</v>
+      </c>
+      <c r="M72">
+        <v>0.01986489356262517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2775854885922748</v>
+        <v>-0.2434614927704858</v>
       </c>
       <c r="C73">
-        <v>0.1787771952029386</v>
+        <v>0.1461756677808668</v>
       </c>
       <c r="D73">
-        <v>0.1257635177163575</v>
+        <v>-0.1425538848108062</v>
       </c>
       <c r="E73">
-        <v>-0.06342474877213954</v>
+        <v>0.0801318993073436</v>
       </c>
       <c r="F73">
-        <v>0.1873021003926276</v>
+        <v>-0.4459839495387</v>
       </c>
       <c r="G73">
-        <v>-0.06443183779741897</v>
+        <v>0.1169021466304812</v>
       </c>
       <c r="H73">
-        <v>0.1767904708498424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2576018952788082</v>
+      </c>
+      <c r="I73">
+        <v>0.2631567956696382</v>
+      </c>
+      <c r="J73">
+        <v>-0.1193235410029995</v>
+      </c>
+      <c r="K73">
+        <v>-0.1867907427749785</v>
+      </c>
+      <c r="L73">
+        <v>0.2695146616501669</v>
+      </c>
+      <c r="M73">
+        <v>0.09857909078663307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09515760079932575</v>
+        <v>-0.09428291920567451</v>
       </c>
       <c r="C74">
-        <v>0.03964471256977949</v>
+        <v>0.07229693388848074</v>
       </c>
       <c r="D74">
-        <v>0.005889174116795009</v>
+        <v>-0.006042793670521087</v>
       </c>
       <c r="E74">
-        <v>-0.02240614813587988</v>
+        <v>-0.01446151203788375</v>
       </c>
       <c r="F74">
-        <v>-0.08987540506641824</v>
+        <v>-0.03354098009689941</v>
       </c>
       <c r="G74">
-        <v>0.1243707084086353</v>
+        <v>-0.1491325078767472</v>
       </c>
       <c r="H74">
-        <v>0.06074082356386726</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.01036733436619875</v>
+      </c>
+      <c r="I74">
+        <v>0.02193730646795934</v>
+      </c>
+      <c r="J74">
+        <v>0.007866905105394742</v>
+      </c>
+      <c r="K74">
+        <v>0.04725931851408614</v>
+      </c>
+      <c r="L74">
+        <v>0.03347467535391151</v>
+      </c>
+      <c r="M74">
+        <v>0.01773091536822405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09232932847282002</v>
+        <v>-0.09345831175991283</v>
       </c>
       <c r="C75">
-        <v>0.02004803084360053</v>
+        <v>0.05206516259028543</v>
       </c>
       <c r="D75">
-        <v>0.01017300867717493</v>
+        <v>-0.004634978376552096</v>
       </c>
       <c r="E75">
-        <v>-0.03219063887295476</v>
+        <v>-0.01157369192402085</v>
       </c>
       <c r="F75">
-        <v>-0.08811308752464451</v>
+        <v>-0.01382067594934297</v>
       </c>
       <c r="G75">
-        <v>0.08216299958950075</v>
+        <v>-0.1064160619760826</v>
       </c>
       <c r="H75">
-        <v>0.02100954658203498</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.04728803710041172</v>
+      </c>
+      <c r="I75">
+        <v>-0.06852749352989844</v>
+      </c>
+      <c r="J75">
+        <v>-0.01245418972469278</v>
+      </c>
+      <c r="K75">
+        <v>0.04266098048667188</v>
+      </c>
+      <c r="L75">
+        <v>0.02773725176554654</v>
+      </c>
+      <c r="M75">
+        <v>-0.08536476705308015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1343655528452162</v>
+        <v>-0.08964434103112755</v>
       </c>
       <c r="C76">
-        <v>0.03113441932956539</v>
+        <v>0.06322087559705207</v>
       </c>
       <c r="D76">
-        <v>0.01259958721844007</v>
+        <v>-0.0009739682664726195</v>
       </c>
       <c r="E76">
-        <v>-0.00590532953311159</v>
+        <v>0.004777039796204075</v>
       </c>
       <c r="F76">
-        <v>-0.1873630709264484</v>
+        <v>-0.0406564811561083</v>
       </c>
       <c r="G76">
-        <v>0.1676440038419483</v>
+        <v>-0.2000006277996065</v>
       </c>
       <c r="H76">
-        <v>0.06305528251707658</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.07654314908675855</v>
+      </c>
+      <c r="I76">
+        <v>-0.07449282144237147</v>
+      </c>
+      <c r="J76">
+        <v>-0.002585938879787653</v>
+      </c>
+      <c r="K76">
+        <v>0.06578601221744393</v>
+      </c>
+      <c r="L76">
+        <v>0.04784975594883824</v>
+      </c>
+      <c r="M76">
+        <v>0.07212143262758906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.08108049774271923</v>
+        <v>-0.07225034392526569</v>
       </c>
       <c r="C77">
-        <v>0.01353847971538258</v>
+        <v>0.02445571099249168</v>
       </c>
       <c r="D77">
-        <v>0.02260782035607741</v>
+        <v>-0.01073083756687775</v>
       </c>
       <c r="E77">
-        <v>0.3306456947319363</v>
+        <v>0.07031518826604227</v>
       </c>
       <c r="F77">
-        <v>-0.3381247668227387</v>
+        <v>0.3846271852732717</v>
       </c>
       <c r="G77">
-        <v>-0.6641299162201895</v>
+        <v>0.1749770612459176</v>
       </c>
       <c r="H77">
-        <v>-0.1133106515303815</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.5355326331333919</v>
+      </c>
+      <c r="I77">
+        <v>-0.224759702213741</v>
+      </c>
+      <c r="J77">
+        <v>-0.4819925636240965</v>
+      </c>
+      <c r="K77">
+        <v>0.2147259765374654</v>
+      </c>
+      <c r="L77">
+        <v>0.05693740911951425</v>
+      </c>
+      <c r="M77">
+        <v>0.00956570134624875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1366661677603784</v>
+        <v>-0.1636751777285967</v>
       </c>
       <c r="C78">
-        <v>0.06677562463881379</v>
+        <v>0.1251690260033638</v>
       </c>
       <c r="D78">
-        <v>0.02177522239566797</v>
+        <v>0.1706483674602778</v>
       </c>
       <c r="E78">
-        <v>0.1627897199783049</v>
+        <v>0.109140216249633</v>
       </c>
       <c r="F78">
-        <v>0.05493118766681158</v>
+        <v>0.1253134168719212</v>
       </c>
       <c r="G78">
-        <v>0.01187667201257613</v>
+        <v>0.2503100909047704</v>
       </c>
       <c r="H78">
-        <v>-0.08796356129155243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.3806230132892708</v>
+      </c>
+      <c r="I78">
+        <v>-0.5463195467786941</v>
+      </c>
+      <c r="J78">
+        <v>-0.140683251789815</v>
+      </c>
+      <c r="K78">
+        <v>-0.4338604239000091</v>
+      </c>
+      <c r="L78">
+        <v>0.1894004449713597</v>
+      </c>
+      <c r="M78">
+        <v>0.1075924936284855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1410624466596168</v>
+        <v>-0.1339721416760945</v>
       </c>
       <c r="C79">
-        <v>0.05066834186109165</v>
+        <v>0.07626875180163066</v>
       </c>
       <c r="D79">
-        <v>0.02219995194452897</v>
+        <v>-0.0003900464570509622</v>
       </c>
       <c r="E79">
-        <v>-0.04334307040258938</v>
+        <v>0.002446092679064561</v>
       </c>
       <c r="F79">
-        <v>-0.1369072437034487</v>
+        <v>0.008532669275296341</v>
       </c>
       <c r="G79">
-        <v>0.1021340345354654</v>
+        <v>-0.1657334033213269</v>
       </c>
       <c r="H79">
-        <v>0.01209429274934104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.05194342973143562</v>
+      </c>
+      <c r="I79">
+        <v>-0.03981629079907696</v>
+      </c>
+      <c r="J79">
+        <v>-0.003049057346288178</v>
+      </c>
+      <c r="K79">
+        <v>0.1097508942632805</v>
+      </c>
+      <c r="L79">
+        <v>0.04701240436430023</v>
+      </c>
+      <c r="M79">
+        <v>-0.01811715802370822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02486401574839319</v>
+        <v>-0.05643431423055539</v>
       </c>
       <c r="C80">
-        <v>-0.0003569038524281593</v>
+        <v>0.02715810231889953</v>
       </c>
       <c r="D80">
-        <v>0.0004062867329838158</v>
+        <v>-0.06830018955761673</v>
       </c>
       <c r="E80">
-        <v>-0.03939212303643373</v>
+        <v>0.007213161315630032</v>
       </c>
       <c r="F80">
-        <v>-0.00826211991092566</v>
+        <v>0.02039844361249447</v>
       </c>
       <c r="G80">
-        <v>-0.02452961340566983</v>
+        <v>0.02833260604910063</v>
       </c>
       <c r="H80">
-        <v>0.06289216441062789</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.0493639252037202</v>
+      </c>
+      <c r="I80">
+        <v>0.04522255236273123</v>
+      </c>
+      <c r="J80">
+        <v>0.1403479974454944</v>
+      </c>
+      <c r="K80">
+        <v>-0.05199536854320726</v>
+      </c>
+      <c r="L80">
+        <v>-0.07920431777614514</v>
+      </c>
+      <c r="M80">
+        <v>0.005709733740562003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1124950154525096</v>
+        <v>-0.1224759801690179</v>
       </c>
       <c r="C81">
-        <v>0.05243940594496557</v>
+        <v>0.05989850435171501</v>
       </c>
       <c r="D81">
-        <v>0.02868208516770038</v>
+        <v>-0.0009032888796227749</v>
       </c>
       <c r="E81">
-        <v>-0.04067010202249146</v>
+        <v>0.004633629285802669</v>
       </c>
       <c r="F81">
-        <v>-0.08291858823153941</v>
+        <v>0.02420129461095695</v>
       </c>
       <c r="G81">
-        <v>0.07175989151896481</v>
+        <v>-0.139738513748526</v>
       </c>
       <c r="H81">
-        <v>0.02802236086298257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.06815416138701451</v>
+      </c>
+      <c r="I81">
+        <v>-0.01435226973816066</v>
+      </c>
+      <c r="J81">
+        <v>-0.01355208287450123</v>
+      </c>
+      <c r="K81">
+        <v>0.05390427506550897</v>
+      </c>
+      <c r="L81">
+        <v>0.0292243945910622</v>
+      </c>
+      <c r="M81">
+        <v>-0.1133366174163283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1113114358088817</v>
+        <v>-0.1174901031814307</v>
       </c>
       <c r="C82">
-        <v>0.03116747789829821</v>
+        <v>0.05434323553611523</v>
       </c>
       <c r="D82">
-        <v>0.05711957427848728</v>
+        <v>-0.02463020381414716</v>
       </c>
       <c r="E82">
-        <v>-0.07028355944234978</v>
+        <v>-0.004093283141974149</v>
       </c>
       <c r="F82">
-        <v>-0.2067061089116047</v>
+        <v>-0.02243491541368269</v>
       </c>
       <c r="G82">
-        <v>0.1673665538723842</v>
+        <v>-0.2397209125016937</v>
       </c>
       <c r="H82">
-        <v>-0.01693461826236263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.08865056434702433</v>
+      </c>
+      <c r="I82">
+        <v>-0.01378115546880684</v>
+      </c>
+      <c r="J82">
+        <v>-0.0443335678236046</v>
+      </c>
+      <c r="K82">
+        <v>0.09228244433398235</v>
+      </c>
+      <c r="L82">
+        <v>-0.04667446588692357</v>
+      </c>
+      <c r="M82">
+        <v>-0.04850726095318391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.06228952138462183</v>
+        <v>-0.07495788437411596</v>
       </c>
       <c r="C83">
-        <v>0.0514679416265525</v>
+        <v>0.07039000153101622</v>
       </c>
       <c r="D83">
-        <v>0.03757109499901747</v>
+        <v>-0.01809756992137449</v>
       </c>
       <c r="E83">
-        <v>-0.01474930225178007</v>
+        <v>0.007680342105301844</v>
       </c>
       <c r="F83">
-        <v>0.05721112345361923</v>
+        <v>0.008373217490727442</v>
       </c>
       <c r="G83">
-        <v>-0.03833901851093295</v>
+        <v>-0.0293097831387686</v>
       </c>
       <c r="H83">
-        <v>-0.09368946780009085</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.04425518611339086</v>
+      </c>
+      <c r="I83">
+        <v>0.05240041532938138</v>
+      </c>
+      <c r="J83">
+        <v>0.03936207346198875</v>
+      </c>
+      <c r="K83">
+        <v>-0.04445977107093145</v>
+      </c>
+      <c r="L83">
+        <v>-0.1573966074922431</v>
+      </c>
+      <c r="M83">
+        <v>0.06557817553276211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05010100326878757</v>
+        <v>-0.04816081305937164</v>
       </c>
       <c r="C84">
-        <v>0.05067685424787657</v>
+        <v>-0.02132278218513878</v>
       </c>
       <c r="D84">
-        <v>-0.05761002024510802</v>
+        <v>-0.006514789248148586</v>
       </c>
       <c r="E84">
-        <v>-0.02231184684454034</v>
+        <v>-0.02304343088457329</v>
       </c>
       <c r="F84">
-        <v>0.04592363140343778</v>
+        <v>0.0004596927812180688</v>
       </c>
       <c r="G84">
-        <v>0.1259103449195458</v>
+        <v>0.2027605340742429</v>
       </c>
       <c r="H84">
-        <v>-0.01798104397354175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1871689792283768</v>
+      </c>
+      <c r="I84">
+        <v>0.1548970224675856</v>
+      </c>
+      <c r="J84">
+        <v>-0.06476506606580798</v>
+      </c>
+      <c r="K84">
+        <v>-0.007839859338507083</v>
+      </c>
+      <c r="L84">
+        <v>-0.1410187260108065</v>
+      </c>
+      <c r="M84">
+        <v>0.5137157692869706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08814251110481358</v>
+        <v>-0.1097298062237873</v>
       </c>
       <c r="C85">
-        <v>0.04250744404933171</v>
+        <v>0.05071084065924584</v>
       </c>
       <c r="D85">
-        <v>0.05118720075544797</v>
+        <v>-0.00942723614028892</v>
       </c>
       <c r="E85">
-        <v>-0.01881185377901087</v>
+        <v>0.02937996033204308</v>
       </c>
       <c r="F85">
-        <v>-0.1710470029239866</v>
+        <v>0.009382045094730937</v>
       </c>
       <c r="G85">
-        <v>0.09490970482645707</v>
+        <v>-0.1715314901657757</v>
       </c>
       <c r="H85">
-        <v>0.05464719935760969</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.05383994722770997</v>
+      </c>
+      <c r="I85">
+        <v>-0.03616088838196331</v>
+      </c>
+      <c r="J85">
+        <v>-0.00713545043391773</v>
+      </c>
+      <c r="K85">
+        <v>0.108191134659021</v>
+      </c>
+      <c r="L85">
+        <v>0.0722387013692533</v>
+      </c>
+      <c r="M85">
+        <v>-0.03420572879197958</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04329881846172268</v>
+        <v>-0.07274850016974953</v>
       </c>
       <c r="C86">
-        <v>0.04423974803395823</v>
+        <v>0.01675815358623823</v>
       </c>
       <c r="D86">
-        <v>0.003223841292683008</v>
+        <v>0.0138068929095503</v>
       </c>
       <c r="E86">
-        <v>0.04691066913550284</v>
+        <v>0.09991658784867365</v>
       </c>
       <c r="F86">
-        <v>0.01652256450725577</v>
+        <v>0.03565210410910814</v>
       </c>
       <c r="G86">
-        <v>-0.07339198091875487</v>
+        <v>0.3951902548310254</v>
       </c>
       <c r="H86">
-        <v>0.1019519547397593</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4817963963797731</v>
+      </c>
+      <c r="I86">
+        <v>0.3183753191242838</v>
+      </c>
+      <c r="J86">
+        <v>-0.2064537901911345</v>
+      </c>
+      <c r="K86">
+        <v>0.421841133850357</v>
+      </c>
+      <c r="L86">
+        <v>0.1777869988993362</v>
+      </c>
+      <c r="M86">
+        <v>0.01571359741400465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09375476598001221</v>
+        <v>-0.1136765662910944</v>
       </c>
       <c r="C87">
-        <v>0.0591624060119162</v>
+        <v>0.06831185634776615</v>
       </c>
       <c r="D87">
-        <v>0.02026251599411586</v>
+        <v>0.03197282310458726</v>
       </c>
       <c r="E87">
-        <v>0.1445889422144659</v>
+        <v>0.0407299332776677</v>
       </c>
       <c r="F87">
-        <v>-0.07741846425522361</v>
+        <v>0.1422697215090421</v>
       </c>
       <c r="G87">
-        <v>-0.1707829438591298</v>
+        <v>0.1026295904351849</v>
       </c>
       <c r="H87">
-        <v>-0.06649533461633747</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1557125831413595</v>
+      </c>
+      <c r="I87">
+        <v>-0.007847911848182622</v>
+      </c>
+      <c r="J87">
+        <v>-0.1220522637174701</v>
+      </c>
+      <c r="K87">
+        <v>0.08765423559858734</v>
+      </c>
+      <c r="L87">
+        <v>-0.1124780150205177</v>
+      </c>
+      <c r="M87">
+        <v>-0.04419088640420347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05470047753771664</v>
+        <v>-0.05703771503295626</v>
       </c>
       <c r="C88">
-        <v>0.03929605934751604</v>
+        <v>0.05485144287662694</v>
       </c>
       <c r="D88">
-        <v>0.02437148999035088</v>
+        <v>-0.02744400229449873</v>
       </c>
       <c r="E88">
-        <v>0.01209279708479347</v>
+        <v>0.01366273689942378</v>
       </c>
       <c r="F88">
-        <v>-0.0002049119770588083</v>
+        <v>0.03095540018010775</v>
       </c>
       <c r="G88">
-        <v>-0.02350638235275477</v>
+        <v>-0.02842082936614285</v>
       </c>
       <c r="H88">
-        <v>-0.03288805913767183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.001086611822299904</v>
+      </c>
+      <c r="I88">
+        <v>0.04343962621881789</v>
+      </c>
+      <c r="J88">
+        <v>0.01922623032519976</v>
+      </c>
+      <c r="K88">
+        <v>-0.02096351363768312</v>
+      </c>
+      <c r="L88">
+        <v>-0.01741434624695039</v>
+      </c>
+      <c r="M88">
+        <v>-0.02045708784813102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1686498460839527</v>
+        <v>-0.213929336767696</v>
       </c>
       <c r="C89">
-        <v>-0.3254120319075689</v>
+        <v>-0.3593488671578992</v>
       </c>
       <c r="D89">
-        <v>0.05852826389331187</v>
+        <v>0.03866434055634583</v>
       </c>
       <c r="E89">
-        <v>0.08545243855320915</v>
+        <v>0.08153774565084877</v>
       </c>
       <c r="F89">
-        <v>0.04534945514229621</v>
+        <v>0.01258808699787543</v>
       </c>
       <c r="G89">
-        <v>-0.01112188696381864</v>
+        <v>-0.002388558374755917</v>
       </c>
       <c r="H89">
-        <v>0.0004083147339095029</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.0191219164276838</v>
+      </c>
+      <c r="I89">
+        <v>0.0296772296905773</v>
+      </c>
+      <c r="J89">
+        <v>-0.007806864964959367</v>
+      </c>
+      <c r="K89">
+        <v>-0.08294325111064628</v>
+      </c>
+      <c r="L89">
+        <v>-0.01480835889246916</v>
+      </c>
+      <c r="M89">
+        <v>-0.108981602651531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1223151612305618</v>
+        <v>-0.1467800411679732</v>
       </c>
       <c r="C90">
-        <v>-0.2813890376633091</v>
+        <v>-0.2715988592911486</v>
       </c>
       <c r="D90">
-        <v>0.00290031124458683</v>
+        <v>-0.01442792552486824</v>
       </c>
       <c r="E90">
-        <v>0.0515386595982359</v>
+        <v>0.02297698624938729</v>
       </c>
       <c r="F90">
-        <v>0.01430167152889328</v>
+        <v>0.0300637160210116</v>
       </c>
       <c r="G90">
-        <v>-0.06306411730986539</v>
+        <v>0.0139382613851891</v>
       </c>
       <c r="H90">
-        <v>-0.04751886903121975</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.03764907776246992</v>
+      </c>
+      <c r="I90">
+        <v>0.0453759912134199</v>
+      </c>
+      <c r="J90">
+        <v>0.01505306429132447</v>
+      </c>
+      <c r="K90">
+        <v>-0.03631323313486681</v>
+      </c>
+      <c r="L90">
+        <v>0.005759205869764918</v>
+      </c>
+      <c r="M90">
+        <v>0.06392286283024333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08577314842737079</v>
+        <v>-0.07752045790472377</v>
       </c>
       <c r="C91">
-        <v>0.02474359822674551</v>
+        <v>0.05448275772826803</v>
       </c>
       <c r="D91">
-        <v>0.00875419948381722</v>
+        <v>0.008212509499032957</v>
       </c>
       <c r="E91">
-        <v>0.01856416561641757</v>
+        <v>0.006317770167129762</v>
       </c>
       <c r="F91">
-        <v>-0.06416284787153588</v>
+        <v>-0.01028883245556588</v>
       </c>
       <c r="G91">
-        <v>0.09199350148080594</v>
+        <v>-0.08966417114696627</v>
       </c>
       <c r="H91">
-        <v>0.0216641338624819</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.04142014825502147</v>
+      </c>
+      <c r="I91">
+        <v>-0.03380946285119713</v>
+      </c>
+      <c r="J91">
+        <v>-0.02659888818931586</v>
+      </c>
+      <c r="K91">
+        <v>0.0173120114182663</v>
+      </c>
+      <c r="L91">
+        <v>0.03127359029707082</v>
+      </c>
+      <c r="M91">
+        <v>-0.01343604983141192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1411927976672757</v>
+        <v>-0.163949952951852</v>
       </c>
       <c r="C92">
-        <v>-0.3027195995033502</v>
+        <v>-0.3019712469393754</v>
       </c>
       <c r="D92">
-        <v>0.03617063954308018</v>
+        <v>0.02916161443006569</v>
       </c>
       <c r="E92">
-        <v>0.02860956393172196</v>
+        <v>0.04783360104480412</v>
       </c>
       <c r="F92">
-        <v>0.07102705940841583</v>
+        <v>0.02904121646318819</v>
       </c>
       <c r="G92">
-        <v>0.05425105846789951</v>
+        <v>-0.02784365507906776</v>
       </c>
       <c r="H92">
-        <v>0.008520920168863733</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.01615265160701308</v>
+      </c>
+      <c r="I92">
+        <v>0.00588081072081107</v>
+      </c>
+      <c r="J92">
+        <v>0.01828699222585264</v>
+      </c>
+      <c r="K92">
+        <v>-0.04257130724655093</v>
+      </c>
+      <c r="L92">
+        <v>-0.003823352748081461</v>
+      </c>
+      <c r="M92">
+        <v>-0.08104091856361856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1363735421425009</v>
+        <v>-0.1636460235061314</v>
       </c>
       <c r="C93">
-        <v>-0.2588470672064154</v>
+        <v>-0.2877357126611126</v>
       </c>
       <c r="D93">
-        <v>0.01746025760148269</v>
+        <v>-0.03210888528267008</v>
       </c>
       <c r="E93">
-        <v>0.01819828214777152</v>
+        <v>0.009873479787209058</v>
       </c>
       <c r="F93">
-        <v>0.03140438376057852</v>
+        <v>0.01532767265011532</v>
       </c>
       <c r="G93">
-        <v>-0.02402990547512</v>
+        <v>0.01247028935786524</v>
       </c>
       <c r="H93">
-        <v>-0.01261783305454242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.006183531733226795</v>
+      </c>
+      <c r="I93">
+        <v>0.03449391435255965</v>
+      </c>
+      <c r="J93">
+        <v>0.02226404447021806</v>
+      </c>
+      <c r="K93">
+        <v>0.01473543809988104</v>
+      </c>
+      <c r="L93">
+        <v>-0.02047256024441664</v>
+      </c>
+      <c r="M93">
+        <v>0.04605305047041935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08959857486765647</v>
+        <v>-0.1087073143617162</v>
       </c>
       <c r="C94">
-        <v>0.0600757721803305</v>
+        <v>0.07595237409164896</v>
       </c>
       <c r="D94">
-        <v>0.009169808807301087</v>
+        <v>0.01923830876349027</v>
       </c>
       <c r="E94">
-        <v>-0.002038231127463059</v>
+        <v>0.0130819665619167</v>
       </c>
       <c r="F94">
-        <v>-0.1036648580063445</v>
+        <v>-0.03145522770101174</v>
       </c>
       <c r="G94">
-        <v>0.1431217166212876</v>
+        <v>-0.128216883428437</v>
       </c>
       <c r="H94">
-        <v>0.05515412117897088</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.05163425354463438</v>
+      </c>
+      <c r="I94">
+        <v>-0.04089181675988136</v>
+      </c>
+      <c r="J94">
+        <v>0.01602174010917308</v>
+      </c>
+      <c r="K94">
+        <v>0.01758072664614817</v>
+      </c>
+      <c r="L94">
+        <v>0.05480171048048995</v>
+      </c>
+      <c r="M94">
+        <v>-0.03749290181595801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1017666595801492</v>
+        <v>-0.1258707421358381</v>
       </c>
       <c r="C95">
-        <v>0.0739943175088508</v>
+        <v>0.07107579520845367</v>
       </c>
       <c r="D95">
-        <v>0.06530712192142596</v>
+        <v>0.01622266022769137</v>
       </c>
       <c r="E95">
-        <v>0.03132597112102439</v>
+        <v>0.06262440984410064</v>
       </c>
       <c r="F95">
-        <v>0.05830502644706494</v>
+        <v>0.07034038437001894</v>
       </c>
       <c r="G95">
-        <v>0.01367592657398128</v>
+        <v>0.2035979393141467</v>
       </c>
       <c r="H95">
-        <v>-0.008656589647010994</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.03875197168036187</v>
+      </c>
+      <c r="I95">
+        <v>0.1748743861767182</v>
+      </c>
+      <c r="J95">
+        <v>0.1047899932668757</v>
+      </c>
+      <c r="K95">
+        <v>0.03035841657396288</v>
+      </c>
+      <c r="L95">
+        <v>0.001923664354969029</v>
+      </c>
+      <c r="M95">
+        <v>-0.5081696438030048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.000175783516234013</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0005771075233255472</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>2.458843211748114e-05</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0004126863971151224</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.001285556249882239</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.0003082258951965987</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0006779985064465379</v>
+      </c>
+      <c r="I96">
+        <v>0.000630220148444979</v>
+      </c>
+      <c r="J96">
+        <v>0.0002324589988056978</v>
+      </c>
+      <c r="K96">
+        <v>0.0007284201088289917</v>
+      </c>
+      <c r="L96">
+        <v>0.0005965629203165955</v>
+      </c>
+      <c r="M96">
+        <v>0.0001475341938259308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2519567102329771</v>
+        <v>-0.1614585237603549</v>
       </c>
       <c r="C97">
-        <v>0.04076172764520019</v>
+        <v>-0.004310681604257716</v>
       </c>
       <c r="D97">
-        <v>-0.8749260275028443</v>
+        <v>0.09869290594802482</v>
       </c>
       <c r="E97">
-        <v>-0.1591711813264606</v>
+        <v>-0.9303563481767541</v>
       </c>
       <c r="F97">
-        <v>0.08439272843031614</v>
+        <v>0.04828216575000384</v>
       </c>
       <c r="G97">
-        <v>-0.1143813910692107</v>
+        <v>0.1134576349890341</v>
       </c>
       <c r="H97">
-        <v>-0.005731034790254145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.03284755025323571</v>
+      </c>
+      <c r="I97">
+        <v>0.03650918680821286</v>
+      </c>
+      <c r="J97">
+        <v>-0.06951971588428249</v>
+      </c>
+      <c r="K97">
+        <v>-0.03962498338729955</v>
+      </c>
+      <c r="L97">
+        <v>0.009258586929880644</v>
+      </c>
+      <c r="M97">
+        <v>-0.04857185018252299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2850055944462423</v>
+        <v>-0.2662932139483514</v>
       </c>
       <c r="C98">
-        <v>0.1094266761842383</v>
+        <v>0.1070742379429291</v>
       </c>
       <c r="D98">
-        <v>0.186614986031522</v>
+        <v>-0.001290061891225746</v>
       </c>
       <c r="E98">
-        <v>-0.3043443280545175</v>
+        <v>0.01488709784189019</v>
       </c>
       <c r="F98">
-        <v>0.5212570569436971</v>
+        <v>-0.4437186237383124</v>
       </c>
       <c r="G98">
-        <v>-0.05196553346075217</v>
+        <v>0.1969491493731488</v>
       </c>
       <c r="H98">
-        <v>-0.3023831514250636</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.04174837926360109</v>
+      </c>
+      <c r="I98">
+        <v>-0.2806850722071998</v>
+      </c>
+      <c r="J98">
+        <v>-0.08094558035043802</v>
+      </c>
+      <c r="K98">
+        <v>0.02776401614982939</v>
+      </c>
+      <c r="L98">
+        <v>-0.6193513230184733</v>
+      </c>
+      <c r="M98">
+        <v>-0.06460371543581049</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.0571706236429959</v>
+        <v>-0.06657900063362758</v>
       </c>
       <c r="C99">
-        <v>0.05596440280045546</v>
+        <v>0.05756156440519234</v>
       </c>
       <c r="D99">
-        <v>0.05866470778360276</v>
+        <v>0.007567774982831039</v>
       </c>
       <c r="E99">
-        <v>0.005980209074737578</v>
+        <v>0.04657516089147676</v>
       </c>
       <c r="F99">
-        <v>-0.00469488690866272</v>
+        <v>0.001661653499646966</v>
       </c>
       <c r="G99">
-        <v>-0.06335859091876728</v>
+        <v>-0.01393886530778319</v>
       </c>
       <c r="H99">
-        <v>-0.09278653711865341</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01181804348873148</v>
+      </c>
+      <c r="I99">
+        <v>-0.03577299486272115</v>
+      </c>
+      <c r="J99">
+        <v>-0.08560870738394891</v>
+      </c>
+      <c r="K99">
+        <v>0.001781236527870196</v>
+      </c>
+      <c r="L99">
+        <v>-0.002005975102083105</v>
+      </c>
+      <c r="M99">
+        <v>-0.1015327279885843</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05329154280896188</v>
+        <v>-0.04363182120616269</v>
       </c>
       <c r="C101">
-        <v>0.01983442399547397</v>
+        <v>0.02815404013838014</v>
       </c>
       <c r="D101">
-        <v>0.008672067531137861</v>
+        <v>-0.00383443055530453</v>
       </c>
       <c r="E101">
-        <v>0.02411262964717355</v>
+        <v>0.01980761473246935</v>
       </c>
       <c r="F101">
-        <v>0.007977833182940194</v>
+        <v>0.05732553909063588</v>
       </c>
       <c r="G101">
-        <v>0.01108797758065584</v>
+        <v>-0.02879046177575018</v>
       </c>
       <c r="H101">
-        <v>0.01997062904024492</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.03407311209665703</v>
+      </c>
+      <c r="I101">
+        <v>0.0112568230212936</v>
+      </c>
+      <c r="J101">
+        <v>0.05130580726036149</v>
+      </c>
+      <c r="K101">
+        <v>0.02934576072930791</v>
+      </c>
+      <c r="L101">
+        <v>-0.03927117002457431</v>
+      </c>
+      <c r="M101">
+        <v>0.005662045849813557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
